--- a/eco_fin/ret.xlsx
+++ b/eco_fin/ret.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\college_works\eco_fin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537036CD-7474-41A0-90C5-0B3781700D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2D812A-6AD4-4629-9754-8889A13A15A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="744" yWindow="816" windowWidth="22296" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
-  <si>
-    <t>ibov</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+  <si>
+    <t>ret</t>
   </si>
   <si>
     <t>1999-02-01</t>
@@ -790,15 +790,50 @@
     <t>2020-04-01</t>
   </si>
   <si>
-    <t>data</t>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -826,8 +861,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,19 +1178,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2963,7 +2999,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-2.4466552123616481E-2</v>
+        <v>-3.1955357427637665E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -2971,7 +3007,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>5.22568084347661E-2</v>
+        <v>5.9745613738787284E-2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,6 +3232,78 @@
       </c>
       <c r="B256">
         <v>9.7598339580985183E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>8.2197891206718054E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>8.3936584598191644E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7.9408062503061316E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>-3.5034060323228644E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>-4.9151005764642264E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>-6.9051744765804557E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>0.14753581747777744</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>9.1371790187466218E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>-2.8041087103964912E-2</v>
       </c>
     </row>
   </sheetData>
